--- a/wti模型3.0/eta/PADD3炼厂压裂裂解_月度数据.xlsx
+++ b/wti模型3.0/eta/PADD3炼厂压裂裂解_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>23.1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="C3" t="n">
-        <v>20.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="11">
@@ -601,7 +601,7 @@
         <v>15.5</v>
       </c>
       <c r="C13" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="14">
@@ -666,7 +666,7 @@
         <v>15.5</v>
       </c>
       <c r="C18" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="19">
